--- a/backtest_510300.xlsx
+++ b/backtest_510300.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result-&lt;built-in method now of type object at 0x1058c4bc8&gt;" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
         <v>-0.13</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
         <v>0.19</v>
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
         <v>0.32</v>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
         <v>-0.88</v>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
         <v>-0.63</v>
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D9" t="n">
         <v>0.46</v>
@@ -607,11 +607,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>watch</t>
+          <t>观望</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D10" t="n">
         <v>0.89</v>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D11" t="n">
         <v>0.48</v>
@@ -643,11 +643,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>观望</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D12" t="n">
         <v>0.5</v>
@@ -679,7 +679,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>观望</t>
+          <t>watch</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D15" t="n">
         <v>0.32</v>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D16" t="n">
         <v>-0.26</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D18" t="n">
         <v>0.19</v>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D19" t="n">
         <v>0.32</v>
@@ -787,11 +787,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>观望</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D20" t="n">
         <v>0.8100000000000001</v>
@@ -805,11 +805,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>观望</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D21" t="n">
         <v>0.34</v>
@@ -841,11 +841,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D23" t="n">
         <v>-0.58</v>
@@ -877,11 +877,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>观望</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D25" t="n">
         <v>-0.21</v>
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D26" t="n">
         <v>0.32</v>
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D27" t="n">
         <v>0.64</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D28" t="n">
         <v>0.21</v>
@@ -949,7 +949,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>观望</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D31" t="n">
         <v>0.86</v>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D32" t="n">
         <v>0.86</v>
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D36" t="n">
         <v>-0.3</v>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D39" t="n">
         <v>0.38</v>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1183,11 +1183,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>观望</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D42" t="n">
         <v>0.21</v>
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D43" t="n">
         <v>0.15</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D44" t="n">
         <v>-0.06</v>
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D51" t="n">
         <v>0.04</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D52" t="n">
         <v>-0.06</v>
